--- a/42M_MacWeather_BTC_Stats.xlsx
+++ b/42M_MacWeather_BTC_Stats.xlsx
@@ -597,22 +597,22 @@
         <v>100890.6766365872</v>
       </c>
       <c r="C6" t="n">
-        <v>170206.6241908821</v>
+        <v>116396.2674259275</v>
       </c>
       <c r="D6" t="n">
-        <v>182554.3755980056</v>
+        <v>137970.3412021108</v>
       </c>
       <c r="E6" t="n">
-        <v>147996.812469249</v>
+        <v>110386.2103443562</v>
       </c>
       <c r="F6" t="n">
-        <v>174575.2958474263</v>
+        <v>142872.0474071934</v>
       </c>
       <c r="G6" t="n">
-        <v>178730.203642992</v>
+        <v>145018.4047542006</v>
       </c>
       <c r="H6" t="n">
-        <v>184759.7309943685</v>
+        <v>150935.753186062</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         <v>908.906766365872</v>
       </c>
       <c r="C7" t="n">
-        <v>1602.066241908821</v>
+        <v>1063.962674259275</v>
       </c>
       <c r="D7" t="n">
-        <v>1725.543755980056</v>
+        <v>1279.703412021108</v>
       </c>
       <c r="E7" t="n">
-        <v>1379.96812469249</v>
+        <v>1003.862103443562</v>
       </c>
       <c r="F7" t="n">
-        <v>1645.752958474263</v>
+        <v>1328.720474071934</v>
       </c>
       <c r="G7" t="n">
-        <v>1687.30203642992</v>
+        <v>1350.184047542006</v>
       </c>
       <c r="H7" t="n">
-        <v>1747.597309943685</v>
+        <v>1409.35753186062</v>
       </c>
     </row>
     <row r="8">
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>23129.23919587775</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>18605.9119577439</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14789.49233281859</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>13964.99431343781</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15023.9206638157</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>17418.93006482262</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         <v>76.67018162770142</v>
       </c>
       <c r="C11" t="n">
-        <v>46.50325226171568</v>
+        <v>54.40280804325789</v>
       </c>
       <c r="D11" t="n">
-        <v>42.71922140366578</v>
+        <v>49.18499314966178</v>
       </c>
       <c r="E11" t="n">
-        <v>48.39720719501769</v>
+        <v>54.64063130993966</v>
       </c>
       <c r="F11" t="n">
-        <v>38.18142185123428</v>
+        <v>42.37528297895315</v>
       </c>
       <c r="G11" t="n">
-        <v>34.79577362466964</v>
+        <v>39.74040174934412</v>
       </c>
       <c r="H11" t="n">
-        <v>41.64638696944799</v>
+        <v>34.32291977657265</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         <v>846</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>999</v>
+        <v>1050</v>
       </c>
       <c r="D12" s="3" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>965</v>
       </c>
-      <c r="E12" s="3" t="n">
-        <v>999</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>962</v>
-      </c>
       <c r="G12" s="3" t="n">
-        <v>924</v>
+        <v>961</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>755</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13">
@@ -808,7 +808,7 @@
         <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -836,7 +836,7 @@
         <v>18</v>
       </c>
       <c r="H14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17948.81510202312</v>
+        <v>13049.2300994203</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -903,22 +903,22 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>42.10526315789473</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="D17" t="n">
-        <v>57.14285714285714</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>53.84615384615385</v>
+        <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>57.14285714285714</v>
+        <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>55.55555555555556</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>55.55555555555556</v>
+        <v>54.16666666666666</v>
       </c>
     </row>
     <row r="18">
@@ -929,22 +929,22 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>604.4780010152382</v>
+        <v>596.4332210050858</v>
       </c>
       <c r="D18" t="n">
-        <v>602.0588266093985</v>
+        <v>594.0382383433043</v>
       </c>
       <c r="E18" t="n">
-        <v>603.2684138123185</v>
+        <v>595.247704587504</v>
       </c>
       <c r="F18" t="n">
-        <v>602.0588266093985</v>
+        <v>594.0382383433043</v>
       </c>
       <c r="G18" t="n">
-        <v>602.0588266093985</v>
+        <v>594.0382383433043</v>
       </c>
       <c r="H18" t="n">
-        <v>648.4462841073585</v>
+        <v>594.0382383433043</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +955,22 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>-10.9557844903634</v>
+        <v>-12.84622664545977</v>
       </c>
       <c r="D19" t="n">
-        <v>-10.9557844903634</v>
+        <v>-12.84622664545976</v>
       </c>
       <c r="E19" t="n">
-        <v>-28.54317730277047</v>
+        <v>-30.25774552974276</v>
       </c>
       <c r="F19" t="n">
-        <v>-10.95578449036341</v>
+        <v>-12.84622664545977</v>
       </c>
       <c r="G19" t="n">
-        <v>-10.95578449036342</v>
+        <v>-12.84622664545977</v>
       </c>
       <c r="H19" t="n">
-        <v>-10.95578449036339</v>
+        <v>-12.84622664545977</v>
       </c>
     </row>
     <row r="20">
@@ -981,22 +981,22 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>98.94101966419984</v>
+        <v>109.8537431620315</v>
       </c>
       <c r="D20" t="n">
-        <v>97.57704519829427</v>
+        <v>108.3105034806069</v>
       </c>
       <c r="E20" t="n">
-        <v>94.14838704572246</v>
+        <v>98.45023933493006</v>
       </c>
       <c r="F20" t="n">
-        <v>97.57704519829426</v>
+        <v>108.3105034806069</v>
       </c>
       <c r="G20" t="n">
-        <v>88.38467070865201</v>
+        <v>95.17064076873464</v>
       </c>
       <c r="H20" t="n">
-        <v>106.5036129102833</v>
+        <v>70.25489790930764</v>
       </c>
     </row>
     <row r="21">
@@ -1007,22 +1007,22 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>-4.525598142661107</v>
+        <v>-6.053924180611452</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.423271446807681</v>
+        <v>-7.359651255399369</v>
       </c>
       <c r="E21" t="n">
-        <v>-5.588344108014787</v>
+        <v>-7.056369499516325</v>
       </c>
       <c r="F21" t="n">
-        <v>-6.423271446807687</v>
+        <v>-7.359651255399371</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.835442182704751</v>
+        <v>-7.050770438412727</v>
       </c>
       <c r="H21" t="n">
-        <v>-6.291425600250474</v>
+        <v>-7.183926726604693</v>
       </c>
     </row>
     <row r="22">
@@ -1033,22 +1033,22 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="3" t="n">
-        <v>137.5</v>
+        <v>157</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>136.875</v>
+        <v>156.285714285706</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>199.4285714285648</v>
+        <v>214.6923076923032</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>136.875</v>
+        <v>156.285714285706</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>121.7</v>
+        <v>135.1111111111111</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>145.4666666666667</v>
+        <v>126.8461538461458</v>
       </c>
     </row>
     <row r="23">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="3" t="n">
-        <v>19.45454545453704</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>24.33333333333333</v>
+        <v>21</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>14.08333333333333</v>
+        <v>13.0769230769213</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>24.33333333333333</v>
+        <v>21</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>26.75</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>23.83333333333333</v>
+        <v>25.72727272726852</v>
       </c>
     </row>
     <row r="24">
@@ -1085,22 +1085,22 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>4.542951390117033</v>
+        <v>3.103965465147834</v>
       </c>
       <c r="D24" t="n">
-        <v>5.42149703134953</v>
+        <v>4.065324406730905</v>
       </c>
       <c r="E24" t="n">
-        <v>7.124977021107545</v>
+        <v>4.571365735143691</v>
       </c>
       <c r="F24" t="n">
-        <v>6.53847169646833</v>
+        <v>5.11813259573421</v>
       </c>
       <c r="G24" t="n">
-        <v>7.937339804752762</v>
+        <v>5.72421252143448</v>
       </c>
       <c r="H24" t="n">
-        <v>5.397794397093546</v>
+        <v>6.287523429234587</v>
       </c>
     </row>
     <row r="25">
@@ -1111,22 +1111,22 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>8431.927588993794</v>
+        <v>5599.803548733027</v>
       </c>
       <c r="D25" t="n">
-        <v>12325.31254271469</v>
+        <v>9140.738657293627</v>
       </c>
       <c r="E25" t="n">
-        <v>4617.230667970226</v>
+        <v>3359.114624805226</v>
       </c>
       <c r="F25" t="n">
-        <v>11755.37827481616</v>
+        <v>9490.860529085243</v>
       </c>
       <c r="G25" t="n">
-        <v>9373.900202388444</v>
+        <v>7501.022486344477</v>
       </c>
       <c r="H25" t="n">
-        <v>6472.582629421056</v>
+        <v>5872.323049419249</v>
       </c>
     </row>
     <row r="26">
@@ -1139,22 +1139,22 @@
         <v>1.041539806553791</v>
       </c>
       <c r="C26" t="n">
-        <v>1.377030259989928</v>
+        <v>1.224062603548515</v>
       </c>
       <c r="D26" t="n">
-        <v>1.421832581114042</v>
+        <v>1.306932940063031</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307618922970899</v>
+        <v>1.192194611661512</v>
       </c>
       <c r="F26" t="n">
-        <v>1.504195809112362</v>
+        <v>1.412118977783796</v>
       </c>
       <c r="G26" t="n">
-        <v>1.588126247524428</v>
+        <v>1.485903071697004</v>
       </c>
       <c r="H26" t="n">
-        <v>1.431268890718599</v>
+        <v>1.552677114823654</v>
       </c>
     </row>
     <row r="27">
@@ -1167,22 +1167,22 @@
         <v>0.7634038003830342</v>
       </c>
       <c r="C27" t="n">
-        <v>1.633212688934305</v>
+        <v>1.160109981149097</v>
       </c>
       <c r="D27" t="n">
-        <v>1.835786700874317</v>
+        <v>1.397518435857397</v>
       </c>
       <c r="E27" t="n">
-        <v>1.469365775580726</v>
+        <v>1.123678217442283</v>
       </c>
       <c r="F27" t="n">
-        <v>2.012519272966531</v>
+        <v>1.649907918806509</v>
       </c>
       <c r="G27" t="n">
-        <v>2.232224345151177</v>
+        <v>1.772028747680416</v>
       </c>
       <c r="H27" t="n">
-        <v>1.893345346719999</v>
+        <v>2.091466855445514</v>
       </c>
     </row>
     <row r="28">
@@ -1195,22 +1195,22 @@
         <v>1.177419286859545</v>
       </c>
       <c r="C28" t="n">
-        <v>1.278790139141337</v>
+        <v>1.242135535128697</v>
       </c>
       <c r="D28" t="n">
-        <v>1.29793485933756</v>
+        <v>1.269034596793366</v>
       </c>
       <c r="E28" t="n">
-        <v>1.258004639383939</v>
+        <v>1.231584807451516</v>
       </c>
       <c r="F28" t="n">
-        <v>1.33404874988931</v>
+        <v>1.3089847460857</v>
       </c>
       <c r="G28" t="n">
-        <v>1.369256777385763</v>
+        <v>1.339484412444384</v>
       </c>
       <c r="H28" t="n">
-        <v>1.30044265304262</v>
+        <v>1.383830802968821</v>
       </c>
     </row>
     <row r="29">
@@ -1223,22 +1223,22 @@
         <v>1.520064313241322</v>
       </c>
       <c r="C29" t="n">
-        <v>2.192849819761942</v>
+        <v>1.941047968957799</v>
       </c>
       <c r="D29" t="n">
-        <v>2.27232594391156</v>
+        <v>2.08097565273191</v>
       </c>
       <c r="E29" t="n">
-        <v>2.036871512919945</v>
+        <v>1.852069551655872</v>
       </c>
       <c r="F29" t="n">
-        <v>2.460099554486219</v>
+        <v>2.302341720339275</v>
       </c>
       <c r="G29" t="n">
-        <v>2.6409142799816</v>
+        <v>2.461118401555732</v>
       </c>
       <c r="H29" t="n">
-        <v>2.287204236661122</v>
+        <v>2.604060183685443</v>
       </c>
     </row>
   </sheetData>

--- a/42M_MacWeather_BTC_Stats.xlsx
+++ b/42M_MacWeather_BTC_Stats.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>VAMS + MacWeath #3</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Macro Weather Only</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -502,6 +507,9 @@
       <c r="H2" s="2" t="n">
         <v>43891</v>
       </c>
+      <c r="I2" s="2" t="n">
+        <v>43891</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -530,6 +538,9 @@
       <c r="H3" s="2" t="n">
         <v>45721</v>
       </c>
+      <c r="I3" s="2" t="n">
+        <v>45721</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -558,6 +569,9 @@
       <c r="H4" s="3" t="n">
         <v>1831</v>
       </c>
+      <c r="I4" s="3" t="n">
+        <v>1831</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -586,6 +600,9 @@
       <c r="H5" t="n">
         <v>10000</v>
       </c>
+      <c r="I5" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -594,25 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100890.6766365872</v>
+        <v>97952.11323940507</v>
       </c>
       <c r="C6" t="n">
-        <v>116396.2674259275</v>
+        <v>54416.69230427477</v>
       </c>
       <c r="D6" t="n">
-        <v>137970.3412021108</v>
+        <v>78790.77653457109</v>
       </c>
       <c r="E6" t="n">
-        <v>110386.2103443562</v>
+        <v>61372.32777811344</v>
       </c>
       <c r="F6" t="n">
-        <v>142872.0474071934</v>
+        <v>95447.31550612622</v>
       </c>
       <c r="G6" t="n">
-        <v>145018.4047542006</v>
+        <v>95254.50356179113</v>
       </c>
       <c r="H6" t="n">
-        <v>150935.753186062</v>
+        <v>98705.10827782101</v>
+      </c>
+      <c r="I6" t="n">
+        <v>110801.8459452796</v>
       </c>
     </row>
     <row r="7">
@@ -622,25 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>908.906766365872</v>
+        <v>879.5211323940507</v>
       </c>
       <c r="C7" t="n">
-        <v>1063.962674259275</v>
+        <v>444.1669230427476</v>
       </c>
       <c r="D7" t="n">
-        <v>1279.703412021108</v>
+        <v>687.9077653457109</v>
       </c>
       <c r="E7" t="n">
-        <v>1003.862103443562</v>
+        <v>513.7232777811345</v>
       </c>
       <c r="F7" t="n">
-        <v>1328.720474071934</v>
+        <v>854.4731550612622</v>
       </c>
       <c r="G7" t="n">
-        <v>1350.184047542006</v>
+        <v>852.5450356179114</v>
       </c>
       <c r="H7" t="n">
-        <v>1409.35753186062</v>
+        <v>887.0510827782102</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1008.018459452796</v>
       </c>
     </row>
     <row r="8">
@@ -670,6 +693,9 @@
       <c r="H8" t="n">
         <v>908.9067663658728</v>
       </c>
+      <c r="I8" t="n">
+        <v>908.9067663658728</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -698,6 +724,9 @@
       <c r="H9" t="n">
         <v>100</v>
       </c>
+      <c r="I9" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -706,25 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>291.2621359223303</v>
       </c>
       <c r="C10" t="n">
-        <v>23129.23919587775</v>
+        <v>45362.14682513379</v>
       </c>
       <c r="D10" t="n">
-        <v>18605.9119577439</v>
+        <v>39802.22156262527</v>
       </c>
       <c r="E10" t="n">
-        <v>14789.49233281859</v>
+        <v>31292.23019318161</v>
       </c>
       <c r="F10" t="n">
-        <v>13964.99431343781</v>
+        <v>32367.25999974222</v>
       </c>
       <c r="G10" t="n">
-        <v>15023.9206638157</v>
+        <v>34533.47606432099</v>
       </c>
       <c r="H10" t="n">
-        <v>17418.93006482262</v>
+        <v>39741.31627493749</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32252.11477624038</v>
       </c>
     </row>
     <row r="11">
@@ -734,25 +766,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.67018162770142</v>
+        <v>76.67018162770141</v>
       </c>
       <c r="C11" t="n">
-        <v>54.40280804325789</v>
+        <v>69.85770800230848</v>
       </c>
       <c r="D11" t="n">
-        <v>49.18499314966178</v>
+        <v>60.03165909794801</v>
       </c>
       <c r="E11" t="n">
-        <v>54.64063130993966</v>
+        <v>64.98308446010253</v>
       </c>
       <c r="F11" t="n">
-        <v>42.37528297895315</v>
+        <v>50.00665535685685</v>
       </c>
       <c r="G11" t="n">
-        <v>39.74040174934412</v>
+        <v>48.59852711443431</v>
       </c>
       <c r="H11" t="n">
-        <v>34.32291977657265</v>
+        <v>41.02262800007097</v>
+      </c>
+      <c r="I11" t="n">
+        <v>53.85253498697061</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +800,25 @@
         <v>846</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>1050</v>
+        <v>1423</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>1036</v>
+        <v>1062</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>1049</v>
+        <v>1423</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>965</v>
+        <v>1048</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>961</v>
+        <v>1048</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>727</v>
+        <v>963</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>702</v>
       </c>
     </row>
     <row r="13">
@@ -810,6 +848,9 @@
       <c r="H13" t="n">
         <v>24</v>
       </c>
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -838,6 +879,9 @@
       <c r="H14" t="n">
         <v>24</v>
       </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -866,6 +910,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -874,7 +921,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90890.67663658722</v>
+        <v>87952.11323940507</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -883,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>13049.2300994203</v>
+        <v>6873.12386019776</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -894,6 +941,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>-3191.791299165622</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -903,22 +953,25 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>36.84210526315789</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="D17" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="E17" t="n">
+        <v>42.30769230769231</v>
+      </c>
+      <c r="F17" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="G17" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="H17" t="n">
         <v>50</v>
       </c>
-      <c r="E17" t="n">
-        <v>50</v>
-      </c>
-      <c r="F17" t="n">
-        <v>50</v>
-      </c>
-      <c r="G17" t="n">
-        <v>50</v>
-      </c>
-      <c r="H17" t="n">
-        <v>54.16666666666666</v>
+      <c r="I17" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -929,22 +982,25 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>596.4332210050858</v>
+        <v>580.3436609847811</v>
       </c>
       <c r="D18" t="n">
-        <v>594.0382383433043</v>
+        <v>577.9970618111165</v>
       </c>
       <c r="E18" t="n">
-        <v>595.247704587504</v>
+        <v>579.2055603855536</v>
       </c>
       <c r="F18" t="n">
-        <v>594.0382383433043</v>
+        <v>577.9970618111165</v>
       </c>
       <c r="G18" t="n">
-        <v>594.0382383433043</v>
+        <v>577.9970618111165</v>
       </c>
       <c r="H18" t="n">
-        <v>594.0382383433043</v>
+        <v>577.9970618111165</v>
+      </c>
+      <c r="I18" t="n">
+        <v>393.0063986615069</v>
       </c>
     </row>
     <row r="19">
@@ -955,22 +1011,25 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>-12.84622664545977</v>
+        <v>-16.62711095565251</v>
       </c>
       <c r="D19" t="n">
-        <v>-12.84622664545976</v>
+        <v>-16.6271109556525</v>
       </c>
       <c r="E19" t="n">
-        <v>-30.25774552974276</v>
+        <v>-33.68688198368736</v>
       </c>
       <c r="F19" t="n">
-        <v>-12.84622664545977</v>
+        <v>-16.62711095565251</v>
       </c>
       <c r="G19" t="n">
-        <v>-12.84622664545977</v>
+        <v>-16.62711095565251</v>
       </c>
       <c r="H19" t="n">
-        <v>-12.84622664545977</v>
+        <v>-16.62711095565252</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-8.195447894889046</v>
       </c>
     </row>
     <row r="20">
@@ -981,22 +1040,25 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>109.8537431620315</v>
+        <v>183.2799761902225</v>
       </c>
       <c r="D20" t="n">
-        <v>108.3105034806069</v>
+        <v>180.6338657263656</v>
       </c>
       <c r="E20" t="n">
-        <v>98.45023933493006</v>
+        <v>110.142744204652</v>
       </c>
       <c r="F20" t="n">
-        <v>108.3105034806069</v>
+        <v>180.6338657263657</v>
       </c>
       <c r="G20" t="n">
-        <v>95.17064076873464</v>
+        <v>115.7343873924318</v>
       </c>
       <c r="H20" t="n">
-        <v>70.25489790930764</v>
+        <v>70.57729564203204</v>
+      </c>
+      <c r="I20" t="n">
+        <v>98.01933666509163</v>
       </c>
     </row>
     <row r="21">
@@ -1007,22 +1069,25 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>-6.053924180611452</v>
+        <v>-8.508381623259538</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.359651255399369</v>
+        <v>-8.67210319871198</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.056369499516325</v>
+        <v>-9.954409587018603</v>
       </c>
       <c r="F21" t="n">
-        <v>-7.359651255399371</v>
+        <v>-8.672103198711978</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.050770438412727</v>
+        <v>-9.567996718087169</v>
       </c>
       <c r="H21" t="n">
-        <v>-7.183926726604693</v>
+        <v>-10.41293652185093</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-5.450345487851835</v>
       </c>
     </row>
     <row r="22">
@@ -1033,22 +1098,25 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="3" t="n">
-        <v>157</v>
+        <v>241.5</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>156.285714285706</v>
+        <v>240.25</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>214.6923076923032</v>
+        <v>247.7272727272685</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>156.285714285706</v>
+        <v>240.25</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>135.1111111111111</v>
+        <v>164.285714285706</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>126.8461538461458</v>
+        <v>137.0833333333333</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>193.8888888888889</v>
       </c>
     </row>
     <row r="23">
@@ -1059,22 +1127,25 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="3" t="n">
-        <v>17.91666666666667</v>
+        <v>23.2</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>13.0769230769213</v>
+        <v>15.73333333333333</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>23.88888888888889</v>
+        <v>25.54545454545139</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>25.72727272726852</v>
+        <v>23.91666666666667</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>60.66666666666666</v>
       </c>
     </row>
     <row r="24">
@@ -1085,22 +1156,25 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>3.103965465147834</v>
+        <v>1.820471186574542</v>
       </c>
       <c r="D24" t="n">
-        <v>4.065324406730905</v>
+        <v>2.526261394793529</v>
       </c>
       <c r="E24" t="n">
-        <v>4.571365735143691</v>
+        <v>2.493161574345239</v>
       </c>
       <c r="F24" t="n">
-        <v>5.11813259573421</v>
+        <v>3.375617835108335</v>
       </c>
       <c r="G24" t="n">
-        <v>5.72421252143448</v>
+        <v>3.480337368829281</v>
       </c>
       <c r="H24" t="n">
-        <v>6.287523429234587</v>
+        <v>3.8818334294992</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11.68137008168624</v>
       </c>
     </row>
     <row r="25">
@@ -1111,22 +1185,25 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>5599.803548733027</v>
+        <v>2337.720647593409</v>
       </c>
       <c r="D25" t="n">
-        <v>9140.738657293627</v>
+        <v>4913.626895326507</v>
       </c>
       <c r="E25" t="n">
-        <v>3359.114624805226</v>
+        <v>1711.507842996757</v>
       </c>
       <c r="F25" t="n">
-        <v>9490.860529085243</v>
+        <v>6103.379679009016</v>
       </c>
       <c r="G25" t="n">
-        <v>7501.022486344477</v>
+        <v>4736.361308988395</v>
       </c>
       <c r="H25" t="n">
-        <v>5872.323049419249</v>
+        <v>3696.046178242543</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8666.136437037103</v>
       </c>
     </row>
     <row r="26">
@@ -1136,25 +1213,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.041539806553791</v>
+        <v>1.032371909317504</v>
       </c>
       <c r="C26" t="n">
-        <v>1.224062603548515</v>
+        <v>0.9166960627269037</v>
       </c>
       <c r="D26" t="n">
-        <v>1.306932940063031</v>
+        <v>1.074490484597722</v>
       </c>
       <c r="E26" t="n">
-        <v>1.192194611661512</v>
+        <v>0.960067769993117</v>
       </c>
       <c r="F26" t="n">
-        <v>1.412118977783796</v>
+        <v>1.224484835567919</v>
       </c>
       <c r="G26" t="n">
-        <v>1.485903071697004</v>
+        <v>1.277343028236645</v>
       </c>
       <c r="H26" t="n">
-        <v>1.552677114823654</v>
+        <v>1.333544678406093</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.21437771306743</v>
       </c>
     </row>
     <row r="27">
@@ -1164,25 +1244,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7634038003830342</v>
+        <v>0.7512559824029422</v>
       </c>
       <c r="C27" t="n">
-        <v>1.160109981149097</v>
+        <v>0.5750683938804114</v>
       </c>
       <c r="D27" t="n">
-        <v>1.397518435857397</v>
+        <v>0.8479918939357475</v>
       </c>
       <c r="E27" t="n">
-        <v>1.123678217442283</v>
+        <v>0.6705554229278602</v>
       </c>
       <c r="F27" t="n">
-        <v>1.649907918806509</v>
+        <v>1.135593004904166</v>
       </c>
       <c r="G27" t="n">
-        <v>1.772028747680416</v>
+        <v>1.16719627245031</v>
       </c>
       <c r="H27" t="n">
-        <v>2.091466855445514</v>
+        <v>1.409946318730348</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.142368674134976</v>
       </c>
     </row>
     <row r="28">
@@ -1192,25 +1275,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.177419286859545</v>
+        <v>1.175629984046056</v>
       </c>
       <c r="C28" t="n">
-        <v>1.242135535128697</v>
+        <v>1.173787098595113</v>
       </c>
       <c r="D28" t="n">
-        <v>1.269034596793366</v>
+        <v>1.213956251052636</v>
       </c>
       <c r="E28" t="n">
-        <v>1.231584807451516</v>
+        <v>1.180455168000282</v>
       </c>
       <c r="F28" t="n">
-        <v>1.3089847460857</v>
+        <v>1.260055828077987</v>
       </c>
       <c r="G28" t="n">
-        <v>1.339484412444384</v>
+        <v>1.281919577265156</v>
       </c>
       <c r="H28" t="n">
-        <v>1.383830802968821</v>
+        <v>1.317592467188496</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.290232934790686</v>
       </c>
     </row>
     <row r="29">
@@ -1220,25 +1306,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.520064313241322</v>
+        <v>1.506382083567063</v>
       </c>
       <c r="C29" t="n">
-        <v>1.941047968957799</v>
+        <v>1.425907363880873</v>
       </c>
       <c r="D29" t="n">
-        <v>2.08097565273191</v>
+        <v>1.68432769177371</v>
       </c>
       <c r="E29" t="n">
-        <v>1.852069551655872</v>
+        <v>1.476718805724387</v>
       </c>
       <c r="F29" t="n">
-        <v>2.302341720339275</v>
+        <v>1.971574292753851</v>
       </c>
       <c r="G29" t="n">
-        <v>2.461118401555732</v>
+        <v>2.085044207408006</v>
       </c>
       <c r="H29" t="n">
-        <v>2.604060183685443</v>
+        <v>2.201453872372344</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.807680895864954</v>
       </c>
     </row>
   </sheetData>

--- a/42M_MacWeather_BTC_Stats.xlsx
+++ b/42M_MacWeather_BTC_Stats.xlsx
@@ -611,28 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97952.11323940507</v>
+        <v>100538.7908685473</v>
       </c>
       <c r="C6" t="n">
-        <v>54416.69230427477</v>
+        <v>149009.876999396</v>
       </c>
       <c r="D6" t="n">
-        <v>78790.77653457109</v>
+        <v>165512.6582782644</v>
       </c>
       <c r="E6" t="n">
-        <v>61372.32777811344</v>
+        <v>133564.7344839541</v>
       </c>
       <c r="F6" t="n">
-        <v>95447.31550612622</v>
+        <v>162764.9047055435</v>
       </c>
       <c r="G6" t="n">
-        <v>95254.50356179113</v>
+        <v>166135.4708206706</v>
       </c>
       <c r="H6" t="n">
-        <v>98705.10827782101</v>
+        <v>173196.8204896821</v>
       </c>
       <c r="I6" t="n">
-        <v>110801.8459452796</v>
+        <v>158571.4290432315</v>
       </c>
     </row>
     <row r="7">
@@ -642,28 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>879.5211323940507</v>
+        <v>905.387908685473</v>
       </c>
       <c r="C7" t="n">
-        <v>444.1669230427476</v>
+        <v>1390.09876999396</v>
       </c>
       <c r="D7" t="n">
-        <v>687.9077653457109</v>
+        <v>1555.126582782644</v>
       </c>
       <c r="E7" t="n">
-        <v>513.7232777811345</v>
+        <v>1235.647344839541</v>
       </c>
       <c r="F7" t="n">
-        <v>854.4731550612622</v>
+        <v>1527.649047055435</v>
       </c>
       <c r="G7" t="n">
-        <v>852.5450356179114</v>
+        <v>1561.354708206706</v>
       </c>
       <c r="H7" t="n">
-        <v>887.0510827782102</v>
+        <v>1631.96820489682</v>
       </c>
       <c r="I7" t="n">
-        <v>1008.018459452796</v>
+        <v>1485.714290432315</v>
       </c>
     </row>
     <row r="8">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>291.2621359223303</v>
+        <v>34.87792725460895</v>
       </c>
       <c r="C10" t="n">
-        <v>45362.14682513379</v>
+        <v>9382.579177594167</v>
       </c>
       <c r="D10" t="n">
-        <v>39802.22156262527</v>
+        <v>7302.532986312191</v>
       </c>
       <c r="E10" t="n">
-        <v>31292.23019318161</v>
+        <v>5829.14620749773</v>
       </c>
       <c r="F10" t="n">
-        <v>32367.25999974222</v>
+        <v>5324.282366021872</v>
       </c>
       <c r="G10" t="n">
-        <v>34533.47606432099</v>
+        <v>5744.913824490693</v>
       </c>
       <c r="H10" t="n">
-        <v>39741.31627493749</v>
+        <v>6676.723993421687</v>
       </c>
       <c r="I10" t="n">
-        <v>32252.11477624038</v>
+        <v>4707.673161458923</v>
       </c>
     </row>
     <row r="11">
@@ -769,25 +769,25 @@
         <v>76.67018162770141</v>
       </c>
       <c r="C11" t="n">
-        <v>69.85770800230848</v>
+        <v>49.40507677626051</v>
       </c>
       <c r="D11" t="n">
-        <v>60.03165909794801</v>
+        <v>45.0625343528226</v>
       </c>
       <c r="E11" t="n">
-        <v>64.98308446010253</v>
+        <v>50.66652779252072</v>
       </c>
       <c r="F11" t="n">
-        <v>50.00665535685685</v>
+        <v>39.67942770214174</v>
       </c>
       <c r="G11" t="n">
-        <v>48.59852711443431</v>
+        <v>36.56796817602734</v>
       </c>
       <c r="H11" t="n">
-        <v>41.02262800007097</v>
+        <v>33.40575739799081</v>
       </c>
       <c r="I11" t="n">
-        <v>53.85253498697061</v>
+        <v>53.23176959466337</v>
       </c>
     </row>
     <row r="12">
@@ -800,25 +800,25 @@
         <v>846</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>1423</v>
+        <v>1034</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>1062</v>
+        <v>999</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>1423</v>
+        <v>1034</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>1048</v>
+        <v>964</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>1048</v>
+        <v>938</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>963</v>
+        <v>726</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>702</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87952.11323940507</v>
+        <v>90538.79086854729</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>6873.12386019776</v>
+        <v>16055.75492464031</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-3191.791299165622</v>
+        <v>-2373.900486556985</v>
       </c>
     </row>
     <row r="17">
@@ -953,25 +953,25 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>21.05263157894737</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="D17" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>42.30769230769231</v>
+        <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>38.88888888888889</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>50</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="I17" t="n">
-        <v>75</v>
+        <v>83.33333333333334</v>
       </c>
     </row>
     <row r="18">
@@ -982,25 +982,25 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>580.3436609847811</v>
+        <v>601.6623280116848</v>
       </c>
       <c r="D18" t="n">
-        <v>577.9970618111165</v>
+        <v>599.2516207162656</v>
       </c>
       <c r="E18" t="n">
-        <v>579.2055603855536</v>
+        <v>600.4611931017423</v>
       </c>
       <c r="F18" t="n">
-        <v>577.9970618111165</v>
+        <v>599.2516207162656</v>
       </c>
       <c r="G18" t="n">
-        <v>577.9970618111165</v>
+        <v>599.2516207162656</v>
       </c>
       <c r="H18" t="n">
-        <v>577.9970618111165</v>
+        <v>599.2516207162656</v>
       </c>
       <c r="I18" t="n">
-        <v>393.0063986615069</v>
+        <v>409.2070889342181</v>
       </c>
     </row>
     <row r="19">
@@ -1011,25 +1011,25 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>-16.62711095565251</v>
+        <v>-11.61743924464713</v>
       </c>
       <c r="D19" t="n">
-        <v>-16.6271109556525</v>
+        <v>-11.61743924464713</v>
       </c>
       <c r="E19" t="n">
-        <v>-33.68688198368736</v>
+        <v>-29.14327618221078</v>
       </c>
       <c r="F19" t="n">
-        <v>-16.62711095565251</v>
+        <v>-11.61743924464713</v>
       </c>
       <c r="G19" t="n">
-        <v>-16.62711095565251</v>
+        <v>-11.61743924464715</v>
       </c>
       <c r="H19" t="n">
-        <v>-16.62711095565252</v>
+        <v>-11.61743924464714</v>
       </c>
       <c r="I19" t="n">
-        <v>-8.195447894889046</v>
+        <v>-2.830220158590725</v>
       </c>
     </row>
     <row r="20">
@@ -1040,25 +1040,25 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>183.2799761902225</v>
+        <v>111.8881364252166</v>
       </c>
       <c r="D20" t="n">
-        <v>180.6338657263656</v>
+        <v>110.3347643620453</v>
       </c>
       <c r="E20" t="n">
-        <v>110.142744204652</v>
+        <v>100.3295055085588</v>
       </c>
       <c r="F20" t="n">
-        <v>180.6338657263657</v>
+        <v>110.3347643620453</v>
       </c>
       <c r="G20" t="n">
-        <v>115.7343873924318</v>
+        <v>97.09669303698944</v>
       </c>
       <c r="H20" t="n">
-        <v>70.57729564203204</v>
+        <v>71.99945914759722</v>
       </c>
       <c r="I20" t="n">
-        <v>98.01933666509163</v>
+        <v>95.81560143219163</v>
       </c>
     </row>
     <row r="21">
@@ -1069,25 +1069,25 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>-8.508381623259538</v>
+        <v>-4.780540854524559</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.67210319871198</v>
+        <v>-6.094840884854019</v>
       </c>
       <c r="E21" t="n">
-        <v>-9.954409587018603</v>
+        <v>-5.790577012649515</v>
       </c>
       <c r="F21" t="n">
-        <v>-8.672103198711978</v>
+        <v>-6.094840884854013</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.567996718087169</v>
+        <v>-5.79288059311218</v>
       </c>
       <c r="H21" t="n">
-        <v>-10.41293652185093</v>
+        <v>-5.927549720217804</v>
       </c>
       <c r="I21" t="n">
-        <v>-5.450345487851835</v>
+        <v>-1.463757684708258</v>
       </c>
     </row>
     <row r="22">
@@ -1098,25 +1098,25 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="3" t="n">
-        <v>241.5</v>
+        <v>157</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>240.25</v>
+        <v>156.285714285706</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>247.7272727272685</v>
+        <v>214.6923076923032</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>240.25</v>
+        <v>156.285714285706</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>164.285714285706</v>
+        <v>135.1111111111111</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>137.0833333333333</v>
+        <v>126.8461538461458</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>193.8888888888889</v>
+        <v>184.3</v>
       </c>
     </row>
     <row r="23">
@@ -1127,25 +1127,25 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="3" t="n">
-        <v>23.2</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>15.73333333333333</v>
+        <v>13.0769230769213</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>25.54545454545139</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>23.91666666666667</v>
+        <v>25.72727272726852</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>60.66666666666666</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -1156,25 +1156,25 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>1.820471186574542</v>
+        <v>3.919404420494035</v>
       </c>
       <c r="D24" t="n">
-        <v>2.526261394793529</v>
+        <v>4.867780928206354</v>
       </c>
       <c r="E24" t="n">
-        <v>2.493161574345239</v>
+        <v>5.989551788793314</v>
       </c>
       <c r="F24" t="n">
-        <v>3.375617835108335</v>
+        <v>5.97311906254606</v>
       </c>
       <c r="G24" t="n">
-        <v>3.480337368829281</v>
+        <v>7.012033427742867</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8818334294992</v>
+        <v>7.718807191581859</v>
       </c>
       <c r="I24" t="n">
-        <v>11.68137008168624</v>
+        <v>65.33199439249313</v>
       </c>
     </row>
     <row r="25">
@@ -1185,25 +1185,25 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>2337.720647593409</v>
+        <v>7316.309315757685</v>
       </c>
       <c r="D25" t="n">
-        <v>4913.626895326507</v>
+        <v>11108.04701987603</v>
       </c>
       <c r="E25" t="n">
-        <v>1711.507842996757</v>
+        <v>4134.9607522813</v>
       </c>
       <c r="F25" t="n">
-        <v>6103.379679009016</v>
+        <v>10911.77890753883</v>
       </c>
       <c r="G25" t="n">
-        <v>4736.361308988395</v>
+        <v>8674.192823370586</v>
       </c>
       <c r="H25" t="n">
-        <v>3696.046178242543</v>
+        <v>6799.867520403419</v>
       </c>
       <c r="I25" t="n">
-        <v>8666.136437037103</v>
+        <v>12578.77746081571</v>
       </c>
     </row>
     <row r="26">
@@ -1213,28 +1213,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.032371909317504</v>
+        <v>1.040463711973809</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9166960627269037</v>
+        <v>1.323686747697954</v>
       </c>
       <c r="D26" t="n">
-        <v>1.074490484597722</v>
+        <v>1.381802032393608</v>
       </c>
       <c r="E26" t="n">
-        <v>0.960067769993117</v>
+        <v>1.267319237078387</v>
       </c>
       <c r="F26" t="n">
-        <v>1.224484835567919</v>
+        <v>1.472149032098266</v>
       </c>
       <c r="G26" t="n">
-        <v>1.277343028236645</v>
+        <v>1.552560871953766</v>
       </c>
       <c r="H26" t="n">
-        <v>1.333544678406093</v>
+        <v>1.622652316665107</v>
       </c>
       <c r="I26" t="n">
-        <v>1.21437771306743</v>
+        <v>1.361268838150983</v>
       </c>
     </row>
     <row r="27">
@@ -1244,28 +1244,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7512559824029422</v>
+        <v>0.7619641791783048</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5750683938804114</v>
+        <v>1.444103718329885</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8479918939357475</v>
+        <v>1.663722507952702</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6705554229278602</v>
+        <v>1.335178535742266</v>
       </c>
       <c r="F27" t="n">
-        <v>1.135593004904166</v>
+        <v>1.874740047498208</v>
       </c>
       <c r="G27" t="n">
-        <v>1.16719627245031</v>
+        <v>2.053781185522884</v>
       </c>
       <c r="H27" t="n">
-        <v>1.409946318730348</v>
+        <v>2.291868571606947</v>
       </c>
       <c r="I27" t="n">
-        <v>1.142368674134976</v>
+        <v>1.380446006863193</v>
       </c>
     </row>
     <row r="28">
@@ -1275,28 +1275,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.175629984046056</v>
+        <v>1.177204735224466</v>
       </c>
       <c r="C28" t="n">
-        <v>1.173787098595113</v>
+        <v>1.265909019529239</v>
       </c>
       <c r="D28" t="n">
-        <v>1.213956251052636</v>
+        <v>1.287831324503698</v>
       </c>
       <c r="E28" t="n">
-        <v>1.180455168000282</v>
+        <v>1.248812474355799</v>
       </c>
       <c r="F28" t="n">
-        <v>1.260055828077987</v>
+        <v>1.325303052768238</v>
       </c>
       <c r="G28" t="n">
-        <v>1.281919577265156</v>
+        <v>1.358854551331442</v>
       </c>
       <c r="H28" t="n">
-        <v>1.317592467188496</v>
+        <v>1.406016801480634</v>
       </c>
       <c r="I28" t="n">
-        <v>1.290232934790686</v>
+        <v>1.334301905844987</v>
       </c>
     </row>
     <row r="29">
@@ -1306,28 +1306,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.506382083567063</v>
+        <v>1.51849353028295</v>
       </c>
       <c r="C29" t="n">
-        <v>1.425907363880873</v>
+        <v>2.105575727780216</v>
       </c>
       <c r="D29" t="n">
-        <v>1.68432769177371</v>
+        <v>2.206098833083753</v>
       </c>
       <c r="E29" t="n">
-        <v>1.476718805724387</v>
+        <v>1.972507043970979</v>
       </c>
       <c r="F29" t="n">
-        <v>1.971574292753851</v>
+        <v>2.405537029750112</v>
       </c>
       <c r="G29" t="n">
-        <v>2.085044207408006</v>
+        <v>2.578722242392336</v>
       </c>
       <c r="H29" t="n">
-        <v>2.201453872372344</v>
+        <v>2.730335173338372</v>
       </c>
       <c r="I29" t="n">
-        <v>1.807680895864954</v>
+        <v>2.036805966825965</v>
       </c>
     </row>
   </sheetData>

--- a/42M_MacWeather_BTC_Stats.xlsx
+++ b/42M_MacWeather_BTC_Stats.xlsx
@@ -580,28 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C5" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="D5" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E5" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G5" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H5" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="I5" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6">
@@ -611,28 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100538.7908685473</v>
+        <v>1005387.908685473</v>
       </c>
       <c r="C6" t="n">
-        <v>149009.876999396</v>
+        <v>1490098.76999396</v>
       </c>
       <c r="D6" t="n">
-        <v>165512.6582782644</v>
+        <v>1655126.582782643</v>
       </c>
       <c r="E6" t="n">
-        <v>133564.7344839541</v>
+        <v>1335647.344839541</v>
       </c>
       <c r="F6" t="n">
-        <v>162764.9047055435</v>
+        <v>1627649.047055434</v>
       </c>
       <c r="G6" t="n">
-        <v>166135.4708206706</v>
+        <v>1661354.708206705</v>
       </c>
       <c r="H6" t="n">
-        <v>173196.8204896821</v>
+        <v>1731968.204896821</v>
       </c>
       <c r="I6" t="n">
-        <v>158571.4290432315</v>
+        <v>1585714.290432314</v>
       </c>
     </row>
     <row r="7">
@@ -648,22 +648,22 @@
         <v>1390.09876999396</v>
       </c>
       <c r="D7" t="n">
-        <v>1555.126582782644</v>
+        <v>1555.126582782643</v>
       </c>
       <c r="E7" t="n">
         <v>1235.647344839541</v>
       </c>
       <c r="F7" t="n">
-        <v>1527.649047055435</v>
+        <v>1527.649047055434</v>
       </c>
       <c r="G7" t="n">
-        <v>1561.354708206706</v>
+        <v>1561.354708206705</v>
       </c>
       <c r="H7" t="n">
-        <v>1631.96820489682</v>
+        <v>1631.968204896821</v>
       </c>
       <c r="I7" t="n">
-        <v>1485.714290432315</v>
+        <v>1485.714290432314</v>
       </c>
     </row>
     <row r="8">
@@ -673,28 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>908.9067663658728</v>
+        <v>908.906766365873</v>
       </c>
       <c r="C8" t="n">
-        <v>908.9067663658728</v>
+        <v>908.906766365873</v>
       </c>
       <c r="D8" t="n">
-        <v>908.9067663658728</v>
+        <v>908.906766365873</v>
       </c>
       <c r="E8" t="n">
-        <v>908.9067663658728</v>
+        <v>908.906766365873</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9067663658728</v>
+        <v>908.906766365873</v>
       </c>
       <c r="G8" t="n">
-        <v>908.9067663658728</v>
+        <v>908.906766365873</v>
       </c>
       <c r="H8" t="n">
-        <v>908.9067663658728</v>
+        <v>908.906766365873</v>
       </c>
       <c r="I8" t="n">
-        <v>908.9067663658728</v>
+        <v>908.906766365873</v>
       </c>
     </row>
     <row r="9">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34.87792725460895</v>
+        <v>348.7792725460895</v>
       </c>
       <c r="C10" t="n">
-        <v>9382.579177594167</v>
+        <v>93825.79177594176</v>
       </c>
       <c r="D10" t="n">
-        <v>7302.532986312191</v>
+        <v>73025.32986312173</v>
       </c>
       <c r="E10" t="n">
-        <v>5829.14620749773</v>
+        <v>58291.46207497729</v>
       </c>
       <c r="F10" t="n">
-        <v>5324.282366021872</v>
+        <v>53242.82366021877</v>
       </c>
       <c r="G10" t="n">
-        <v>5744.913824490693</v>
+        <v>57449.13824490675</v>
       </c>
       <c r="H10" t="n">
-        <v>6676.723993421687</v>
+        <v>66767.23993421698</v>
       </c>
       <c r="I10" t="n">
-        <v>4707.673161458923</v>
+        <v>47076.7316145893</v>
       </c>
     </row>
     <row r="11">
@@ -769,22 +769,22 @@
         <v>76.67018162770141</v>
       </c>
       <c r="C11" t="n">
-        <v>49.40507677626051</v>
+        <v>49.40507677626052</v>
       </c>
       <c r="D11" t="n">
-        <v>45.0625343528226</v>
+        <v>45.06253435282262</v>
       </c>
       <c r="E11" t="n">
         <v>50.66652779252072</v>
       </c>
       <c r="F11" t="n">
-        <v>39.67942770214174</v>
+        <v>39.67942770214176</v>
       </c>
       <c r="G11" t="n">
-        <v>36.56796817602734</v>
+        <v>36.56796817602739</v>
       </c>
       <c r="H11" t="n">
-        <v>33.40575739799081</v>
+        <v>33.40575739799082</v>
       </c>
       <c r="I11" t="n">
         <v>53.23176959466337</v>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90538.79086854729</v>
+        <v>905387.9086854729</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>16055.75492464031</v>
+        <v>160557.549246403</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-2373.900486556985</v>
+        <v>-23739.00486556993</v>
       </c>
     </row>
     <row r="17">
@@ -985,22 +985,22 @@
         <v>601.6623280116848</v>
       </c>
       <c r="D18" t="n">
-        <v>599.2516207162656</v>
+        <v>599.2516207162654</v>
       </c>
       <c r="E18" t="n">
         <v>600.4611931017423</v>
       </c>
       <c r="F18" t="n">
-        <v>599.2516207162656</v>
+        <v>599.2516207162654</v>
       </c>
       <c r="G18" t="n">
-        <v>599.2516207162656</v>
+        <v>599.2516207162654</v>
       </c>
       <c r="H18" t="n">
-        <v>599.2516207162656</v>
+        <v>599.2516207162654</v>
       </c>
       <c r="I18" t="n">
-        <v>409.2070889342181</v>
+        <v>409.2070889342182</v>
       </c>
     </row>
     <row r="19">
@@ -1011,25 +1011,25 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>-11.61743924464713</v>
+        <v>-11.61743924464714</v>
       </c>
       <c r="D19" t="n">
-        <v>-11.61743924464713</v>
+        <v>-11.61743924464715</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.14327618221078</v>
+        <v>-29.14327618221077</v>
       </c>
       <c r="F19" t="n">
-        <v>-11.61743924464713</v>
+        <v>-11.61743924464715</v>
       </c>
       <c r="G19" t="n">
-        <v>-11.61743924464715</v>
+        <v>-11.61743924464714</v>
       </c>
       <c r="H19" t="n">
         <v>-11.61743924464714</v>
       </c>
       <c r="I19" t="n">
-        <v>-2.830220158590725</v>
+        <v>-2.830220158590715</v>
       </c>
     </row>
     <row r="20">
@@ -1052,10 +1052,10 @@
         <v>110.3347643620453</v>
       </c>
       <c r="G20" t="n">
-        <v>97.09669303698944</v>
+        <v>97.09669303698942</v>
       </c>
       <c r="H20" t="n">
-        <v>71.99945914759722</v>
+        <v>71.99945914759721</v>
       </c>
       <c r="I20" t="n">
         <v>95.81560143219163</v>
@@ -1069,25 +1069,25 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>-4.780540854524559</v>
+        <v>-4.78054085452456</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.094840884854019</v>
+        <v>-6.094840884854023</v>
       </c>
       <c r="E21" t="n">
-        <v>-5.790577012649515</v>
+        <v>-5.790577012649512</v>
       </c>
       <c r="F21" t="n">
-        <v>-6.094840884854013</v>
+        <v>-6.094840884854015</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.79288059311218</v>
+        <v>-5.792880593112179</v>
       </c>
       <c r="H21" t="n">
-        <v>-5.927549720217804</v>
+        <v>-5.927549720217808</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.463757684708258</v>
+        <v>-1.463757684708251</v>
       </c>
     </row>
     <row r="22">
@@ -1156,25 +1156,25 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>3.919404420494035</v>
+        <v>3.919404420494034</v>
       </c>
       <c r="D24" t="n">
-        <v>4.867780928206354</v>
+        <v>4.867780928206352</v>
       </c>
       <c r="E24" t="n">
-        <v>5.989551788793314</v>
+        <v>5.989551788793317</v>
       </c>
       <c r="F24" t="n">
-        <v>5.97311906254606</v>
+        <v>5.973119062546056</v>
       </c>
       <c r="G24" t="n">
-        <v>7.012033427742867</v>
+        <v>7.012033427742871</v>
       </c>
       <c r="H24" t="n">
-        <v>7.718807191581859</v>
+        <v>7.718807191581855</v>
       </c>
       <c r="I24" t="n">
-        <v>65.33199439249313</v>
+        <v>65.33199439249346</v>
       </c>
     </row>
     <row r="25">
@@ -1185,25 +1185,25 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>7316.309315757685</v>
+        <v>73163.09315757683</v>
       </c>
       <c r="D25" t="n">
-        <v>11108.04701987603</v>
+        <v>111080.4701987602</v>
       </c>
       <c r="E25" t="n">
-        <v>4134.9607522813</v>
+        <v>41349.60752281299</v>
       </c>
       <c r="F25" t="n">
-        <v>10911.77890753883</v>
+        <v>109117.7890753882</v>
       </c>
       <c r="G25" t="n">
-        <v>8674.192823370586</v>
+        <v>86741.92823370584</v>
       </c>
       <c r="H25" t="n">
-        <v>6799.867520403419</v>
+        <v>67998.67520403418</v>
       </c>
       <c r="I25" t="n">
-        <v>12578.77746081571</v>
+        <v>125787.774608157</v>
       </c>
     </row>
     <row r="26">
@@ -1216,25 +1216,25 @@
         <v>1.040463711973809</v>
       </c>
       <c r="C26" t="n">
-        <v>1.323686747697954</v>
+        <v>1.323686747697949</v>
       </c>
       <c r="D26" t="n">
-        <v>1.381802032393608</v>
+        <v>1.381802032393606</v>
       </c>
       <c r="E26" t="n">
-        <v>1.267319237078387</v>
+        <v>1.26731923707839</v>
       </c>
       <c r="F26" t="n">
-        <v>1.472149032098266</v>
+        <v>1.472149032098269</v>
       </c>
       <c r="G26" t="n">
-        <v>1.552560871953766</v>
+        <v>1.552560871953768</v>
       </c>
       <c r="H26" t="n">
-        <v>1.622652316665107</v>
+        <v>1.622652316665111</v>
       </c>
       <c r="I26" t="n">
-        <v>1.361268838150983</v>
+        <v>1.361268838150979</v>
       </c>
     </row>
     <row r="27">
@@ -1244,28 +1244,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7619641791783048</v>
+        <v>0.7619641791783011</v>
       </c>
       <c r="C27" t="n">
-        <v>1.444103718329885</v>
+        <v>1.444103718329887</v>
       </c>
       <c r="D27" t="n">
-        <v>1.663722507952702</v>
+        <v>1.663722507952705</v>
       </c>
       <c r="E27" t="n">
-        <v>1.335178535742266</v>
+        <v>1.335178535742267</v>
       </c>
       <c r="F27" t="n">
-        <v>1.874740047498208</v>
+        <v>1.874740047498213</v>
       </c>
       <c r="G27" t="n">
-        <v>2.053781185522884</v>
+        <v>2.053781185522877</v>
       </c>
       <c r="H27" t="n">
-        <v>2.291868571606947</v>
+        <v>2.291868571606949</v>
       </c>
       <c r="I27" t="n">
-        <v>1.380446006863193</v>
+        <v>1.38044600686319</v>
       </c>
     </row>
     <row r="28">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.177204735224466</v>
+        <v>1.177204735224467</v>
       </c>
       <c r="C28" t="n">
-        <v>1.265909019529239</v>
+        <v>1.26590901952924</v>
       </c>
       <c r="D28" t="n">
         <v>1.287831324503698</v>
@@ -1287,16 +1287,16 @@
         <v>1.248812474355799</v>
       </c>
       <c r="F28" t="n">
-        <v>1.325303052768238</v>
+        <v>1.325303052768239</v>
       </c>
       <c r="G28" t="n">
-        <v>1.358854551331442</v>
+        <v>1.358854551331439</v>
       </c>
       <c r="H28" t="n">
-        <v>1.406016801480634</v>
+        <v>1.406016801480633</v>
       </c>
       <c r="I28" t="n">
-        <v>1.334301905844987</v>
+        <v>1.334301905844989</v>
       </c>
     </row>
     <row r="29">
@@ -1306,28 +1306,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.51849353028295</v>
+        <v>1.518493530282951</v>
       </c>
       <c r="C29" t="n">
-        <v>2.105575727780216</v>
+        <v>2.105575727780208</v>
       </c>
       <c r="D29" t="n">
-        <v>2.206098833083753</v>
+        <v>2.20609883308375</v>
       </c>
       <c r="E29" t="n">
-        <v>1.972507043970979</v>
+        <v>1.972507043970984</v>
       </c>
       <c r="F29" t="n">
-        <v>2.405537029750112</v>
+        <v>2.405537029750115</v>
       </c>
       <c r="G29" t="n">
-        <v>2.578722242392336</v>
+        <v>2.578722242392341</v>
       </c>
       <c r="H29" t="n">
-        <v>2.730335173338372</v>
+        <v>2.730335173338376</v>
       </c>
       <c r="I29" t="n">
-        <v>2.036805966825965</v>
+        <v>2.03680596682596</v>
       </c>
     </row>
   </sheetData>
